--- a/gerberanddrillLower/BOM/RPD_Lower.xlsx
+++ b/gerberanddrillLower/BOM/RPD_Lower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{EFF542F9-6ABE-432F-AE4D-1D7EED908F97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{61DC7DB5-A83A-4609-82A0-C2A5FCAA40BD}"/>
   </bookViews>
   <sheets>
     <sheet name="RPD_Lower" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B57BC-33BD-417D-AE97-95793A80338A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33D6FF0-D2F3-4409-8DB9-12131C95AA19}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/gerberanddrillLower/BOM/RPD_Lower.xlsx
+++ b/gerberanddrillLower/BOM/RPD_Lower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{61DC7DB5-A83A-4609-82A0-C2A5FCAA40BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{57E21C80-D98F-43CA-8197-E81662DD025D}"/>
   </bookViews>
   <sheets>
     <sheet name="RPD_Lower" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
     <t>Comment</t>
   </si>
@@ -145,18 +145,6 @@
   </si>
   <si>
     <t>HDR1X10</t>
-  </si>
-  <si>
-    <t>Header 4</t>
-  </si>
-  <si>
-    <t>Header, 4-Pin</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>HDR1X4</t>
   </si>
   <si>
     <t>MOSFET-P</t>
@@ -746,8 +734,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33D6FF0-D2F3-4409-8DB9-12131C95AA19}">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF43268-F991-4006-A73A-155240781111}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +981,7 @@
         <v>42</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,47 +1001,47 @@
         <v>46</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1061,56 +1049,56 @@
         <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1118,19 +1106,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1138,119 +1126,119 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -1281,13 +1269,13 @@
         <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>82</v>
@@ -1298,10 +1286,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>87</v>
@@ -1310,7 +1298,7 @@
         <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1347,7 +1335,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>93</v>
@@ -1358,19 +1346,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1390,7 +1378,7 @@
         <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1398,61 +1386,41 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="3">
         <v>1</v>
       </c>
     </row>

--- a/gerberanddrillLower/BOM/RPD_Lower.xlsx
+++ b/gerberanddrillLower/BOM/RPD_Lower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{57E21C80-D98F-43CA-8197-E81662DD025D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{D9D86763-BB3F-4573-B96F-549CE86B34C5}"/>
   </bookViews>
   <sheets>
     <sheet name="RPD_Lower" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF43268-F991-4006-A73A-155240781111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8C78B5-004F-40EF-B3E6-367EE9B5A582}">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/gerberanddrillLower/BOM/RPD_Lower.xlsx
+++ b/gerberanddrillLower/BOM/RPD_Lower.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylyn_000\Documents\uvichybrid\PowerDistElectrical-masterwc\trunk\gerberanddrillLower\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{D9D86763-BB3F-4573-B96F-549CE86B34C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{5717C4FC-C766-4C58-BFD7-854E00A25981}"/>
   </bookViews>
   <sheets>
     <sheet name="RPD_Lower" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="141">
   <si>
     <t>Comment</t>
   </si>
@@ -39,6 +44,12 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -54,6 +65,12 @@
     <t>Capacitor</t>
   </si>
   <si>
+    <t>Digi-Key, [NoParam]</t>
+  </si>
+  <si>
+    <t>399-5615-1-ND</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -66,6 +83,9 @@
     <t>Cap Semi</t>
   </si>
   <si>
+    <t>399-1285-1-ND</t>
+  </si>
+  <si>
     <t>PWR</t>
   </si>
   <si>
@@ -81,6 +101,12 @@
     <t>LED2</t>
   </si>
   <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>160-1456-1-ND</t>
+  </si>
+  <si>
     <t>LED0</t>
   </si>
   <si>
@@ -90,6 +116,9 @@
     <t>D3, D5, D7, D9, D11, D12, D14, D19</t>
   </si>
   <si>
+    <t>1516-1172-1-ND</t>
+  </si>
+  <si>
     <t>Diode</t>
   </si>
   <si>
@@ -102,6 +131,9 @@
     <t>S10D-TP</t>
   </si>
   <si>
+    <t>BAT42W-FDICT-ND</t>
+  </si>
+  <si>
     <t>D10, D13, D16, D20</t>
   </si>
   <si>
@@ -123,6 +155,9 @@
     <t>ICSP Connector</t>
   </si>
   <si>
+    <t>952-2121-ND</t>
+  </si>
+  <si>
     <t>Header 8</t>
   </si>
   <si>
@@ -159,6 +194,9 @@
     <t>TO-220</t>
   </si>
   <si>
+    <t>SSM3J334RLFCT-ND</t>
+  </si>
+  <si>
     <t>MOSFET-N</t>
   </si>
   <si>
@@ -171,6 +209,9 @@
     <t>SOT23f</t>
   </si>
   <si>
+    <t>SSM3K329RLFCT-ND</t>
+  </si>
+  <si>
     <t>Q8, Q10, Q11, Q14, Q17</t>
   </si>
   <si>
@@ -186,18 +227,27 @@
     <t>Resistor</t>
   </si>
   <si>
+    <t>P16.9KBCCT-ND</t>
+  </si>
+  <si>
     <t>1k</t>
   </si>
   <si>
     <t>R3, R6, R9</t>
   </si>
   <si>
+    <t>P1.0KBCCT-ND</t>
+  </si>
+  <si>
     <t>10K0</t>
   </si>
   <si>
     <t>R4, R5</t>
   </si>
   <si>
+    <t>RNCS1206BKE10K0CT-ND</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
@@ -225,6 +275,9 @@
     <t>Res1</t>
   </si>
   <si>
+    <t>RNCP1206FTD511RCT-ND, RG32P510BCT-ND, RG32P1.0MBCT-ND</t>
+  </si>
+  <si>
     <t>Resistor, 1M Resistor</t>
   </si>
   <si>
@@ -234,15 +287,24 @@
     <t>1206 (High Density)</t>
   </si>
   <si>
+    <t>RG32P1.0MBCT-ND</t>
+  </si>
+  <si>
     <t>R24, R25</t>
   </si>
   <si>
+    <t>RHM1.0MPCT-ND</t>
+  </si>
+  <si>
     <t>PTS525SM15SMTR2</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
+    <t>CKN9104CT-ND</t>
+  </si>
+  <si>
     <t>UA7805CKTTR</t>
   </si>
   <si>
@@ -255,6 +317,9 @@
     <t>SOT223</t>
   </si>
   <si>
+    <t>296-12290-6-ND</t>
+  </si>
+  <si>
     <t>MCP2551-E/SN</t>
   </si>
   <si>
@@ -267,6 +332,9 @@
     <t>SOIC127P600X175-8M</t>
   </si>
   <si>
+    <t>MCP2551-E/SN-ND</t>
+  </si>
+  <si>
     <t>MCP2515-E/ST</t>
   </si>
   <si>
@@ -276,6 +344,9 @@
     <t>SOIC127P1030X265-18M</t>
   </si>
   <si>
+    <t>MCP2515-I/SO-ND</t>
+  </si>
+  <si>
     <t>ATMEGA328P</t>
   </si>
   <si>
@@ -288,6 +359,9 @@
     <t>ATMEGA328P-15AZ - 2</t>
   </si>
   <si>
+    <t>ATMEGA328P-AU-ND</t>
+  </si>
+  <si>
     <t>74ACT125D</t>
   </si>
   <si>
@@ -300,6 +374,9 @@
     <t>14 pin buffer</t>
   </si>
   <si>
+    <t>MC74ACT125DTR2GOSDKR-ND</t>
+  </si>
+  <si>
     <t>ATTINY2313-20S</t>
   </si>
   <si>
@@ -321,6 +398,9 @@
     <t>USBminiB</t>
   </si>
   <si>
+    <t>609-4700-1-ND</t>
+  </si>
+  <si>
     <t>MX150-20</t>
   </si>
   <si>
@@ -345,6 +425,9 @@
     <t>Y1, Y2</t>
   </si>
   <si>
+    <t>535-10007-6-ND</t>
+  </si>
+  <si>
     <t>16MHz 15pf resonator 490-1198-1-ND</t>
   </si>
   <si>
@@ -352,13 +435,25 @@
   </si>
   <si>
     <t>12MHzCRES</t>
+  </si>
+  <si>
+    <t>S7006-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S7008-ND</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>ATTINY2313-20SURCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +466,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -411,18 +514,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,17 +840,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8C78B5-004F-40EF-B3E6-367EE9B5A582}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807A2FE5-9040-45B2-9216-93C925E2C821}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,669 +871,905 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F14" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F21" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F22" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" tooltip="Supplier" display="'399-5615-1-ND" xr:uid="{4A7DB667-317E-4B9B-8CC8-0B7DB714C09D}"/>
+    <hyperlink ref="H3" tooltip="Supplier" display="'399-1285-1-ND" xr:uid="{66A2304E-778A-4405-B50E-79A12F8BB127}"/>
+    <hyperlink ref="H4" r:id="rId1" tooltip="Supplier" display="'160-1456-1-ND" xr:uid="{DFE9EF1C-5A1B-406F-A7B0-5EA9DE34992E}"/>
+    <hyperlink ref="H5" r:id="rId2" tooltip="Supplier" display="'1516-1172-1-ND" xr:uid="{70EC22BF-8A44-4554-8351-BE54DADC43A1}"/>
+    <hyperlink ref="H6" r:id="rId3" tooltip="Supplier" display="'BAT42W-FDICT-ND" xr:uid="{249E1BA9-1906-45FB-9883-E7B91ADDBC39}"/>
+    <hyperlink ref="H7" r:id="rId4" tooltip="Supplier" display="'BAT42W-FDICT-ND" xr:uid="{25926467-6C76-4C0D-A9F6-89D5851F0E04}"/>
+    <hyperlink ref="H8" r:id="rId5" tooltip="Supplier" display="'BAT42W-FDICT-ND" xr:uid="{EE14FC94-BAAA-44E9-B4FA-20DCC3CFFF11}"/>
+    <hyperlink ref="H9" r:id="rId6" tooltip="Supplier" display="'952-2121-ND" xr:uid="{CF94DFB0-BCCD-45E3-B4E4-26AC96EA8DDC}"/>
+    <hyperlink ref="H12" r:id="rId7" tooltip="Supplier" display="'SSM3J334RLFCT-ND" xr:uid="{E5763A29-489A-476F-BFD7-A291160F3CC9}"/>
+    <hyperlink ref="H13" r:id="rId8" tooltip="Supplier" display="'SSM3K329RLFCT-ND" xr:uid="{73BD0C73-095E-42FD-BC18-BA53FF6D884C}"/>
+    <hyperlink ref="H14" r:id="rId9" tooltip="Supplier" display="'SSM3J334RLFCT-ND" xr:uid="{B2C2F215-2741-4B80-9AB4-00A8818E647B}"/>
+    <hyperlink ref="H15" r:id="rId10" tooltip="Supplier" display="'P16.9KBCCT-ND" xr:uid="{6D9D5CB1-0DAF-40A7-839D-CF9A10A98633}"/>
+    <hyperlink ref="H16" r:id="rId11" tooltip="Supplier" display="'P1.0KBCCT-ND" xr:uid="{96ED9ADE-28DE-4759-9C53-FD247B7A8BDA}"/>
+    <hyperlink ref="H17" r:id="rId12" tooltip="Supplier" display="'RNCS1206BKE10K0CT-ND" xr:uid="{989F133F-2356-4B4B-8E31-ECB30528D2B5}"/>
+    <hyperlink ref="H18" r:id="rId13" tooltip="Supplier" display="'P1.0KBCCT-ND" xr:uid="{EF8181BF-44E2-4EB3-98D1-EF9D0DB17D26}"/>
+    <hyperlink ref="H19" r:id="rId14" tooltip="Supplier" display="'P1.0KBCCT-ND" xr:uid="{B5C24D8D-1554-48A7-BE80-963992A11AFD}"/>
+    <hyperlink ref="H20" r:id="rId15" tooltip="Supplier" display="'P1.0KBCCT-ND" xr:uid="{5A0D3530-8784-4448-AB5C-199FBCCA06B3}"/>
+    <hyperlink ref="H21" r:id="rId16" tooltip="Supplier" display="'RNCP1206FTD511RCT-ND, RG32P510BCT-ND, RG32P1.0MBCT-ND" xr:uid="{44B8AAB5-3E7D-47CF-925C-011B3CB4741D}"/>
+    <hyperlink ref="H22" r:id="rId17" tooltip="Supplier" display="'RG32P1.0MBCT-ND" xr:uid="{98DE83E5-6DA2-4C42-ABB9-B8747EDB7A96}"/>
+    <hyperlink ref="H23" r:id="rId18" tooltip="Supplier" display="'RHM1.0MPCT-ND" xr:uid="{7B9EE313-A530-42C3-9FFB-27C20E1F26EC}"/>
+    <hyperlink ref="H24" r:id="rId19" tooltip="Supplier" display="'CKN9104CT-ND" xr:uid="{52EDD5D2-2F7F-4527-94E5-F643E54619A4}"/>
+    <hyperlink ref="H25" r:id="rId20" tooltip="Supplier" display="'296-12290-6-ND" xr:uid="{68E19CB8-FD49-4B32-917E-D158BB2D0D0A}"/>
+    <hyperlink ref="H26" r:id="rId21" tooltip="Supplier" display="'MCP2551-E/SN-ND" xr:uid="{37BFFA95-F265-4915-AF74-6FC48D5F3A6E}"/>
+    <hyperlink ref="H27" r:id="rId22" tooltip="Supplier" display="'MCP2515-I/SO-ND" xr:uid="{40852062-BBA5-4EF2-8843-828A302AD9BB}"/>
+    <hyperlink ref="H28" r:id="rId23" tooltip="Supplier" display="'ATMEGA328P-AU-ND" xr:uid="{3AEACE0E-E2A1-4B1A-B827-6BB25966EF8E}"/>
+    <hyperlink ref="H29" r:id="rId24" tooltip="Supplier" display="'MC74ACT125DTR2GOSDKR-ND" xr:uid="{4EF5AE69-648B-46F1-9DFE-DF82B0DA24DC}"/>
+    <hyperlink ref="H31" r:id="rId25" tooltip="Supplier" display="'609-4700-1-ND" xr:uid="{5C11B231-81E3-466C-AD16-4240C60B5A59}"/>
+    <hyperlink ref="H32" tooltip="Supplier" display="'" xr:uid="{3A29ABA1-7FFC-4294-8C31-A72A43144E0D}"/>
+    <hyperlink ref="H33" r:id="rId26" tooltip="Supplier" display="'535-10007-6-ND" xr:uid="{B78807D1-3365-432B-AFC5-E1925F0DF1E7}"/>
+    <hyperlink ref="H34" r:id="rId27" tooltip="Supplier" display="'535-10007-6-ND" xr:uid="{791CE5E3-260C-485C-BC04-00B7A00B5681}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>